--- a/datas/CNN모델조사.xlsx
+++ b/datas/CNN모델조사.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\Find_Imo\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chldy\OneDrive\Documents\Find_Imo\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8993161-5FF5-47A7-865A-878DD7E789F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3E7B1-EA15-4E4B-82A5-B554D6164E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B99B326D-560C-4D13-A436-24C79D40DCD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" xr2:uid="{B99B326D-560C-4D13-A436-24C79D40DCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +262,38 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -288,12 +320,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9134655-BCEE-4AC6-805E-6A7D63A69229}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -656,101 +706,101 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1998</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2012</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>2014</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>2014</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>2014</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>2015</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>2015</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>2015</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2015</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -821,24 +871,24 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>2016</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>2016</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -876,24 +926,24 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>2017</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>2017</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -920,24 +970,24 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>2020</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>2021</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/datas/CNN모델조사.xlsx
+++ b/datas/CNN모델조사.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chldy\OneDrive\Documents\Find_Imo\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\campus1N025\Desktop\Find_Imo\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3E7B1-EA15-4E4B-82A5-B554D6164E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B564C5C5-5D66-4D9A-B6FA-A3F027988156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" xr2:uid="{B99B326D-560C-4D13-A436-24C79D40DCD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B99B326D-560C-4D13-A436-24C79D40DCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,63 +185,64 @@
     <t>Xception</t>
   </si>
   <si>
+    <t>Xiangyu Zhang 등이 개발한 CNN 모델로, 모바일 기기에서 효율적으로 동작하도록 설계되었습니다.</t>
+  </si>
+  <si>
+    <t>ShuffleNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD(Single Shot MultiBox Detector)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wei Liu 등이 개발한 실시간 객체 탐지 알고리즘입니다.</t>
+  </si>
+  <si>
+    <t>Inception-v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Szegedy 등이 개발한 CNN 모델로, Inception-v1을 개선한 모델입니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christian Szegedy 등이 개발한 CNN 모델로, Inception-v2를 개선한 모델입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inception-v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christian Szegedy 등이 개발한 CNN 모델로, Inception-v3를 개선한 모델입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inception-ResNet-v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Szegedy 등이 개발한 CNN 모델로, Inception 모듈과 ResNet을 결합한 모델입니다. </t>
+  </si>
+  <si>
+    <t>NASNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barret Zoph 등이 개발한 CNN 모델로, 자동 신경망 구조 탐색 기법을 사용하여 설계되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmoebaNet</t>
+  </si>
+  <si>
+    <t>Esteban Real 등이 개발한 CNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yann LeCun 등이 개발한 CNN의 선구자적 모델로, 필기체 숫자 인식에 사용되었습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>François Chollet이 개발한 CNN 모델로, 기존 인셉션 모듈을 개선한 모델입니다.</t>
-  </si>
-  <si>
-    <t>Xiangyu Zhang 등이 개발한 CNN 모델로, 모바일 기기에서 효율적으로 동작하도록 설계되었습니다.</t>
-  </si>
-  <si>
-    <t>ShuffleNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSD(Single Shot MultiBox Detector)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wei Liu 등이 개발한 실시간 객체 탐지 알고리즘입니다.</t>
-  </si>
-  <si>
-    <t>Inception-v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Szegedy 등이 개발한 CNN 모델로, Inception-v1을 개선한 모델입니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Christian Szegedy 등이 개발한 CNN 모델로, Inception-v2를 개선한 모델입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inception-v4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Christian Szegedy 등이 개발한 CNN 모델로, Inception-v3를 개선한 모델입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inception-ResNet-v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Szegedy 등이 개발한 CNN 모델로, Inception 모듈과 ResNet을 결합한 모델입니다. </t>
-  </si>
-  <si>
-    <t>NASNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barret Zoph 등이 개발한 CNN 모델로, 자동 신경망 구조 탐색 기법을 사용하여 설계되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmoebaNet</t>
-  </si>
-  <si>
-    <t>Esteban Real 등이 개발한 CNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yann LeCun 등이 개발한 CNN의 선구자적 모델로, 필기체 숫자 인식에 사용되었습니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +683,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -713,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -805,68 +806,68 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>2015</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>2015</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
         <v>2016</v>
       </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
         <v>2016</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
         <v>2016</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>2016</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -886,42 +887,42 @@
         <v>2016</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>2017</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>2017</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>2017</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -948,24 +949,24 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>2018</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>2018</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -992,24 +993,24 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>2022</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>2023</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
     </row>

--- a/datas/CNN모델조사.xlsx
+++ b/datas/CNN모델조사.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\campus1N025\Desktop\Find_Imo\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B564C5C5-5D66-4D9A-B6FA-A3F027988156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB328F-9582-47FB-9D5E-428BE68ABE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B99B326D-560C-4D13-A436-24C79D40DCD4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>연도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeNet-5</t>
   </si>
   <si>
@@ -243,6 +239,22 @@
   </si>
   <si>
     <t>François Chollet이 개발한 CNN 모델로, 기존 인셉션 모듈을 개선한 모델입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +695,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -703,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -711,10 +723,13 @@
         <v>1998</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -722,10 +737,13 @@
         <v>2012</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -733,10 +751,13 @@
         <v>2014</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -744,10 +765,13 @@
         <v>2014</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -755,10 +779,10 @@
         <v>2014</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -766,10 +790,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -777,10 +801,10 @@
         <v>2015</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -788,10 +812,13 @@
         <v>2015</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -799,10 +826,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -810,10 +837,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>48</v>
+      <c r="D11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -821,10 +851,13 @@
         <v>2015</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -832,10 +865,13 @@
         <v>2016</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
+      <c r="D13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -843,10 +879,13 @@
         <v>2016</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
+      <c r="D14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -854,10 +893,13 @@
         <v>2016</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -865,153 +907,183 @@
         <v>2016</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>2016</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>2016</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>2017</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>2017</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2017</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>2017</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>2018</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>2018</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>2020</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>2022</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>2023</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>19</v>
+      <c r="D29" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datas/CNN모델조사.xlsx
+++ b/datas/CNN모델조사.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\campus1N025\Desktop\Find_Imo\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\Find_Imo\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C33C23-421D-424D-9A14-3418FDA11BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFBD2D-CE81-478D-808B-0C5D88B767E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B99B326D-560C-4D13-A436-24C79D40DCD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B99B326D-560C-4D13-A436-24C79D40DCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9134655-BCEE-4AC6-805E-6A7D63A69229}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1000,14 +1000,14 @@
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>2017</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>42</v>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
@@ -1017,14 +1017,14 @@
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>2017</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>59</v>
